--- a/biology/Médecine/Cyclopie/Cyclopie.xlsx
+++ b/biology/Médecine/Cyclopie/Cyclopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cyclopie est une malformation génétique touchant les êtres humains et les autres animaux et se caractérisant par la fusion des deux orbites et la présence d’un seul œil au milieu du front[1],[2]. Cette malformation est associée à d’autres malformations du visage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cyclopie est une malformation génétique touchant les êtres humains et les autres animaux et se caractérisant par la fusion des deux orbites et la présence d’un seul œil au milieu du front,. Cette malformation est associée à d’autres malformations du visage.
 Un être vivant atteint de cyclopie est dénommé cyclope.
 La cyclopie est peut-être à l'origine de plusieurs mythes de divers peuples, en particulier de celui des cyclopes dans la mythologie grecque.
 </t>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de  tératologie cyclopie est issu du grec kuklos : (« roue » ou « cercle ») et ôps : (« œil »). Le Larousse affirme que le terme grec de Kuklops (κύκλωψ / kýklôps) signifie « qui roule son œil de manière terrifiante »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de  tératologie cyclopie est issu du grec kuklos : (« roue » ou « cercle ») et ôps : (« œil »). Le Larousse affirme que le terme grec de Kuklops (κύκλωψ / kýklôps) signifie « qui roule son œil de manière terrifiante ».
 </t>
         </is>
       </c>
@@ -544,18 +558,55 @@
           <t>Maladie génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cyclopie est la forme la plus sévère des anomalies de la face qui sont associées à l'holoprosencéphalie alobaire ; elle est due à l'absence de développement du bourgeon frontal rentrant dans le cadre de l'ectroprosopie[4]. La cyclopie existe avec des degrés variables de dédoublement intrinsèque des structures oculaires internes (synophtalmie).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cyclopie est la forme la plus sévère des anomalies de la face qui sont associées à l'holoprosencéphalie alobaire ; elle est due à l'absence de développement du bourgeon frontal rentrant dans le cadre de l'ectroprosopie. La cyclopie existe avec des degrés variables de dédoublement intrinsèque des structures oculaires internes (synophtalmie).
 L'holoprosencéphalie est une malformation congénitale du cerveau et de la face. Elle existe à des degrés divers et résulte en une séparation incomplète entre les deux hémisphères du cerveau et parfois entre les deux yeux. On parle alors de cyclopie.
 L'anomalie comporte aussi une arhinie (absence du nez), et la présence d'un proboscis sus-orbitaire localisé sur la ligne médiane, au-dessus de l'œil unique.
 C'est une anomalie de la famille des cyclocéphaliens.
-Chez l'être humain
-Bien que l'occurrence soit très rare, on a recensé de nombreux cas chez les êtres humains.
-Historiquement, l'existence de cyclope humain est attestée au XVIIIe siècle, le « Journal de médecine, chirurgie, pharmacie, etc. » édité à Paris et datant de 1760 relate des cas de cyclopes humain, bien que le cas cité soit celui d'un agneau[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyclopie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyclopie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Maladie génétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez l'être humain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que l'occurrence soit très rare, on a recensé de nombreux cas chez les êtres humains.
+Historiquement, l'existence de cyclope humain est attestée au XVIIIe siècle, le « Journal de médecine, chirurgie, pharmacie, etc. » édité à Paris et datant de 1760 relate des cas de cyclopes humain, bien que le cas cité soit celui d'un agneau.
 Autre exemple : dans la partie « De l'Homme » des Œuvres Complètes de Buffon (édition 1837 chez éditeurs Pourrat frères), on y parle d'un enfant (planche II figure 3) qui semble bien atteint de ce que l'on appelle « cyclopie ». Cet enfant est né durant l'année 1766, mais il « n'a vécu que quelques heures. »
 La tête de cet enfant a été reproduite en cire par Marie Catherine Biheron. Cette tête en cire fut conservée par Dubourg, naturaliste et médecin à la faculté de Paris. Des détails sur cet événement figurent dans la revue Mercure de France.
-En 2015, la presse évoque la naissance, dans un hôpital égyptien, d'un bébé né avec un œil unique, situé au milieu du front. Ce bébé cyclope est également dépourvu de nez et présente des malformations cardiaques[6].
+En 2015, la presse évoque la naissance, dans un hôpital égyptien, d'un bébé né avec un œil unique, situé au milieu du front. Ce bébé cyclope est également dépourvu de nez et présente des malformations cardiaques.
 </t>
         </is>
       </c>
